--- a/cases/loan/TestData.xlsx
+++ b/cases/loan/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\calculator\cases\loan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA8913-4AC7-4475-B987-4E47FC86D294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F71C492-21F8-4CFF-92A7-486A306B03C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3984" yWindow="1620" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>贷款金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,8 +360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -383,7 +384,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>300000</v>
+        <v>3000</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -402,4 +403,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C0CCA5-978B-45D4-BF5B-EE6A1C25C595}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>300</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>199</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7988</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cases/loan/TestData.xlsx
+++ b/cases/loan/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\calculator\cases\loan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F71C492-21F8-4CFF-92A7-486A306B03C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B49333-09FD-428A-98CE-074EFBFD443D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="1620" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7368" yWindow="1572" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,13 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>贷款金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贷款年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金贷款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业贷款金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C0CCA5-978B-45D4-BF5B-EE6A1C25C595}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -451,4 +460,54 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1D44D-91C1-4F30-9452-93FE5D3DBA8B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>